--- a/simplePerceptron.xlsx
+++ b/simplePerceptron.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agungperdananto/Documents/MK-AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6DEBAB9C-0CC0-364B-9313-B21D2C094EAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E10E2837-4D9E-8F4E-A450-83FA866BA827}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{16A36C72-EA2B-CD49-9D13-FB9629EB3F37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>x1</t>
   </si>
@@ -111,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -169,14 +170,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,10 +338,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8743F0AE-DB4F-5C48-8558-32785DCE31E1}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,19 +696,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -558,65 +720,65 @@
       <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="15">
         <f>G4+(B5*H4+C5*I4)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="15">
         <f>IF(E5&lt;-(0.5),-1,IF(E5&gt;(0.5),1,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="15">
         <f>IF(D5=F5,G4,(G4+(1*D5)))</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="15">
         <f>IF(D5=F5,H4,(H4+(1*B5*D5)))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="16">
         <f>IF(D5=F5,I4,(I4+(1*C5*D5)))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="17">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -641,15 +803,15 @@
         <f>IF(D6=F6,H5,(H5+(1*B6*D6)))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="18">
         <f>IF(D6=F6,I5,(I5+(1*C6*D6)))</f>
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -674,81 +836,81 @@
         <f>IF(D7=F7,H6,(H6+(1*B7*D7)))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="18">
         <f>IF(D7=F7,I6,(I6+(1*C7*D7)))</f>
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
         <f>G7+(B8*H7+C8*I7)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="20">
         <f>IF(E8&lt;-(0.5),-1,IF(E8&gt;(0.5),1,0))</f>
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="20">
         <f>IF(D8=F8,G7,(G7+(1*D8)))</f>
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="20">
         <f>IF(D8=F8,H7,(H7+(1*B8*D8)))</f>
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="21">
         <f>IF(D8=F8,I7,(I7+(1*C8*D8)))</f>
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" ref="E9:E12" si="0">G8+(B9*H8+C9*I8)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="13">
         <f t="shared" ref="F9:F15" si="1">IF(E9&lt;-(0.5),-1,IF(E9&gt;(0.5),1,0))</f>
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="13">
         <f t="shared" ref="G9:G12" si="2">IF(D9=F9,G8,(G8+(1*D9)))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="13">
         <f t="shared" ref="H9:H12" si="3">IF(D9=F9,H8,(H8+(1*B9*D9)))</f>
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="13">
         <f t="shared" ref="I9:I12" si="4">IF(D9=F9,I8,(I8+(1*C9*D9)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -780,7 +942,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -811,75 +973,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:E16" si="5">G12+(B13*H12+C13*I12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" ref="E13:E15" si="5">G12+(B13*H12+C13*I12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" ref="G13:G16" si="6">IF(D13=F13,G12,(G12+(1*D13)))</f>
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13:H16" si="7">IF(D13=F13,H12,(H12+(1*B13*D13)))</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13:I16" si="8">IF(D13=F13,I12,(I12+(1*C13*D13)))</f>
+      <c r="G13" s="15">
+        <f t="shared" ref="G13:G15" si="6">IF(D13=F13,G12,(G12+(1*D13)))</f>
+        <v>-1</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13:H15" si="7">IF(D13=F13,H12,(H12+(1*B13*D13)))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ref="I13:I15" si="8">IF(D13=F13,I12,(I12+(1*C13*D13)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="17">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -904,14 +1066,14 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="17">
         <v>1</v>
       </c>
       <c r="C15" s="1">
@@ -936,79 +1098,79 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
         <f>G15+(B16*H15+C16*I15)</f>
         <v>3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="20">
         <f>IF(E16&lt;-(0.5),-1,IF(E16&gt;(0.5),1,0))</f>
         <v>1</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="20">
         <f>IF(D16=F16,G15,(G15+(1*D16)))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="20">
         <f>IF(D16=F16,H15,(H15+(1*B16*D16)))</f>
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="21">
         <f>IF(D16=F16,I15,(I15+(1*C16*D16)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="13">
         <f>G16+(B17*H16+C17*I16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="13">
         <f>IF(E17&lt;-(0.5),-1,IF(E17&gt;(0.5),1,0))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="13">
         <f>IF(D17=F17,G16,(G16+(1*D17)))</f>
         <v>-1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="13">
         <f>IF(D17=F17,H16,(H16+(1*B17*D17)))</f>
         <v>1</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="13">
         <f>IF(D17=F17,I16,(I16+(1*C17*D17)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1040,7 +1202,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -1071,75 +1233,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="15">
         <f t="shared" ref="E21:E24" si="14">G20+(B21*H20+C21*I20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="15">
         <f t="shared" ref="G21:G24" si="15">IF(D21=F21,G20,(G20+(1*D21)))</f>
         <v>-1</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="15">
         <f t="shared" ref="H21:H24" si="16">IF(D21=F21,H20,(H20+(1*B21*D21)))</f>
         <v>2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="16">
         <f t="shared" ref="I21:I24" si="17">IF(D21=F21,I20,(I20+(1*C21*D21)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="17">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1164,14 +1326,14 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="17">
         <v>1</v>
       </c>
       <c r="C23" s="1">
@@ -1196,79 +1358,79 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="20">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="20">
         <f t="shared" si="15"/>
         <v>-1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="20">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="21">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="13">
         <f t="shared" ref="E25:E28" si="18">G24+(B25*H24+C25*I24)</f>
         <v>-1</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="13">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="13">
         <f t="shared" ref="G25:G28" si="19">IF(D25=F25,G24,(G24+(1*D25)))</f>
         <v>-1</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="13">
         <f t="shared" ref="H25:H28" si="20">IF(D25=F25,H24,(H24+(1*B25*D25)))</f>
         <v>2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="13">
         <f t="shared" ref="I25:I28" si="21">IF(D25=F25,I24,(I24+(1*C25*D25)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -1300,7 +1462,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1494,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -1350,15 +1512,15 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="3">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="3">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="3">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
@@ -1368,20 +1530,357 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361DC715-9863-D541-90E4-0D2F9452523C}">
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <f>G4+(B5*H4+C5*I4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>IF(E5&lt;-(0.5),-1,IF(E5&gt;(0.5),1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f>IF(D5=F5,G4,(G4+(1*D5)))</f>
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <f>IF(D5=F5,H4,(H4+(1*B5*D5)))</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>IF(D5=F5,I4,(I4+(1*C5*D5)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>G5+(B6*H5+C6*I5)</f>
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
+        <f>IF(E6&lt;-(0.5),-1,IF(E6&gt;(0.5),1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <f>IF(D6=F6,G5,(G5+(1*D6)))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>IF(D6=F6,H5,(H5+(1*B6*D6)))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>IF(D6=F6,I5,(I5+(1*C6*D6)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>G6+(B7*H6+C7*I6)</f>
+        <v>-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>IF(E7&lt;-(0.5),-1,IF(E7&gt;(0.5),1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <f>IF(D7=F7,G6,(G6+(1*D7)))</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(D7=F7,H6,(H6+(1*B7*D7)))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>IF(D7=F7,I6,(I6+(1*C7*D7)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f>G7+(B8*H7+C8*I7)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>IF(E8&lt;-(0.5),-1,IF(E8&gt;(0.5),1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>IF(D8=F8,G7,(G7+(1*D8)))</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IF(D8=F8,H7,(H7+(1*B8*D8)))</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>IF(D8=F8,I7,(I7+(1*C8*D8)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E12" si="0">G8+(B9*H8+C9*I8)</f>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F12" si="1">IF(E9&lt;-(0.5),-1,IF(E9&gt;(0.5),1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G12" si="2">IF(D9=F9,G8,(G8+(1*D9)))</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H12" si="3">IF(D9=F9,H8,(H8+(1*B9*D9)))</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I12" si="4">IF(D9=F9,I8,(I8+(1*C9*D9)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>